--- a/Helsinki VRP-ADV version 2/output/results_1.xlsx
+++ b/Helsinki VRP-ADV version 2/output/results_1.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Helsinki/Helsinki VRP-ADV version 2/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_6F483E5CD6AC68C9D4F4A30161C17481C0BC4549" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60B8455-B87A-41DF-B549-E23C2E6A925B}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="6750" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery_results" sheetId="1" r:id="rId1"/>
     <sheet name="Total_emissions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Delivery_point</t>
   </si>
@@ -36,6 +30,12 @@
   </si>
   <si>
     <t>Percentage_of_parcels_delivered_(%)</t>
+  </si>
+  <si>
+    <t>Average_waiting_time_(minutes)</t>
+  </si>
+  <si>
+    <t>Average_queue_length</t>
   </si>
   <si>
     <t>12:17</t>
@@ -59,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,21 +123,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +167,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,7 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,10 +235,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,21 +410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,90 +433,126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>62</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.32</v>
+      </c>
+      <c r="F2">
+        <v>3.26</v>
+      </c>
+      <c r="G2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.33</v>
+      </c>
+      <c r="F3">
+        <v>3.33</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>43</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48.84</v>
+      </c>
+      <c r="F4">
+        <v>3.38</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88.89</v>
+      </c>
+      <c r="F5">
+        <v>3.21</v>
+      </c>
+      <c r="G5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>37</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>72.97</v>
+      </c>
+      <c r="F6">
+        <v>2.68</v>
+      </c>
+      <c r="G6">
+        <v>7.37</v>
       </c>
     </row>
   </sheetData>
@@ -542,21 +561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>988.19178327192742</v>
+        <v>988.1917832719274</v>
       </c>
     </row>
   </sheetData>

--- a/Helsinki VRP-ADV version 2/output/results_1.xlsx
+++ b/Helsinki VRP-ADV version 2/output/results_1.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Delivery_results" sheetId="1" r:id="rId1"/>
     <sheet name="Total_emissions" sheetId="2" r:id="rId2"/>
+    <sheet name="Total_distance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Delivery_point</t>
   </si>
@@ -54,6 +55,9 @@
   </si>
   <si>
     <t>Total CO2 emissions (gCO2eq)</t>
+  </si>
+  <si>
+    <t>Total distance (km)</t>
   </si>
 </sst>
 </file>
@@ -451,16 +455,16 @@
         <v>62</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>40.32</v>
+        <v>35.48</v>
       </c>
       <c r="F2">
-        <v>3.26</v>
+        <v>2.92</v>
       </c>
       <c r="G2">
-        <v>8.6</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -474,16 +478,16 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>38.33</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -503,10 +507,10 @@
         <v>48.84</v>
       </c>
       <c r="F4">
-        <v>3.38</v>
+        <v>1.93</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -526,10 +530,10 @@
         <v>88.89</v>
       </c>
       <c r="F5">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="G5">
-        <v>5.5</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -543,16 +547,16 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>72.97</v>
+        <v>64.86</v>
       </c>
       <c r="F6">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="G6">
-        <v>7.37</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
@@ -581,4 +585,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>39.76204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>